--- a/Laboratoires/Groups/PRG1-B_History.xlsx
+++ b/Laboratoires/Groups/PRG1-B_History.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/breguet/HEIG-MINI/2024_PRG1_COURS/Laboratoires/Groups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guy-michelbreguet/VLT_RACKSTATION/GUY-MICHEL/HEIG-VD/_Enseignements/Analyse_et_Pgm/PRG/PRG1/2024_PRG1_COURS/Laboratoires/Groups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC92F1-9B90-3146-AD25-4479CCC5BF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4909869F-7E9F-324E-BC45-2748A2403E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="8720" windowWidth="28040" windowHeight="17440" xr2:uid="{704A53F6-2DCB-A44E-8560-80E8C33B2E0B}"/>
+    <workbookView xWindow="5460" yWindow="500" windowWidth="22740" windowHeight="17440" xr2:uid="{704A53F6-2DCB-A44E-8560-80E8C33B2E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="students">Feuil1!$I$1:$J$18</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
   <si>
     <t>Labo-07</t>
   </si>
@@ -45,13 +48,76 @@
   </si>
   <si>
     <t>Labo-09</t>
+  </si>
+  <si>
+    <t>Bader Gabriel</t>
+  </si>
+  <si>
+    <t>Sadiku Enis</t>
+  </si>
+  <si>
+    <t>Bardet Corentin</t>
+  </si>
+  <si>
+    <t>Madau Mirko Alexandre</t>
+  </si>
+  <si>
+    <t>Berney Dylan</t>
+  </si>
+  <si>
+    <t>Tchinda Feze Cedrick Vanel</t>
+  </si>
+  <si>
+    <t>Billault Martin</t>
+  </si>
+  <si>
+    <t>Feuzet Kitio Russelle</t>
+  </si>
+  <si>
+    <t>Bonny Aymeric</t>
+  </si>
+  <si>
+    <t>Costa Dos Santos Mauro</t>
+  </si>
+  <si>
+    <t>Brescia Steven</t>
+  </si>
+  <si>
+    <t>Léger Fabien</t>
+  </si>
+  <si>
+    <t>Cornu Laurent</t>
+  </si>
+  <si>
+    <t>Kilcher Théo</t>
+  </si>
+  <si>
+    <t>dos Santos Samuel</t>
+  </si>
+  <si>
+    <t>Sese Hénok</t>
+  </si>
+  <si>
+    <t>Ghaemmaghami Théo</t>
+  </si>
+  <si>
+    <t>Marchand Ethan</t>
+  </si>
+  <si>
+    <t>Miehlbradt Garis</t>
+  </si>
+  <si>
+    <t>Ischi Marc</t>
+  </si>
+  <si>
+    <t>Sadiku Enis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,20 +125,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -99,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,18 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,398 +494,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3428EBB0-DA4B-7D44-9B0F-102E442FAFED}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D27"/>
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4">
+      <c r="C1" s="3">
+        <f>VLOOKUP(E1,students,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
+        <f>VLOOKUP(F1,students,2)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <f>VLOOKUP(E2,students,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>VLOOKUP(F2,students,2)</f>
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
+        <f>VLOOKUP(E3,students,2)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>VLOOKUP(F3,students,2)</f>
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <f>VLOOKUP(E4,students,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <f>VLOOKUP(F4,students,2)</f>
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <f>VLOOKUP(E5,students,2)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <f>VLOOKUP(F5,students,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <f>VLOOKUP(E6,students,2)</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <f>VLOOKUP(F6,students,2)</f>
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <f>VLOOKUP(E7,students,2)</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <f>VLOOKUP(F7,students,2)</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
+        <f>VLOOKUP(E8,students,2)</f>
         <v>7</v>
       </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <f>VLOOKUP(F8,students,2)</f>
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <f>VLOOKUP(E9,students,2)</f>
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <f>VLOOKUP(F9,students,2)</f>
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <f>VLOOKUP(E10,students,2)</f>
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <f>VLOOKUP(F10,students,2)</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <f>VLOOKUP(E11,students,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <f>VLOOKUP(F11,students,2)</f>
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <f>VLOOKUP(E12,students,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <f>VLOOKUP(F12,students,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <f>VLOOKUP(E13,students,2)</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <f>VLOOKUP(F13,students,2)</f>
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C14" s="3">
+        <f>VLOOKUP(E14,students,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <f>VLOOKUP(F14,students,2)</f>
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <f>VLOOKUP(E15,students,2)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <f>VLOOKUP(F15,students,2)</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
         <v>15</v>
       </c>
-      <c r="D9" s="4">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <f>VLOOKUP(E16,students,2)</f>
+        <v>16</v>
+      </c>
+      <c r="D16" s="3">
+        <f>VLOOKUP(F16,students,2)</f>
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <f>VLOOKUP(E17,students,2)</f>
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
+        <f>VLOOKUP(F17,students,2)</f>
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <f>VLOOKUP(E18,students,2)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <f>VLOOKUP(F18,students,2)</f>
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <f>VLOOKUP(E19,students,2)</f>
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <f>VLOOKUP(F19,students,2)</f>
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <f>VLOOKUP(E20,students,2)</f>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <f>VLOOKUP(F20,students,2)</f>
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <f>VLOOKUP(E21,students,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <f>VLOOKUP(F21,students,2)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <f>VLOOKUP(E22,students,2)</f>
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <f>VLOOKUP(F22,students,2)</f>
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <f>VLOOKUP(E23,students,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <f>VLOOKUP(F23,students,2)</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <f>VLOOKUP(E24,students,2)</f>
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <f>VLOOKUP(F24,students,2)</f>
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <f>VLOOKUP(E25,students,2)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" s="3">
+        <f>VLOOKUP(F25,students,2)</f>
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <f>VLOOKUP(E26,students,2)</f>
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <f>VLOOKUP(F26,students,2)</f>
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <f>VLOOKUP(E27,students,2)</f>
+        <v>14</v>
+      </c>
+      <c r="D27" s="3">
+        <f>VLOOKUP(F27,students,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <f>VLOOKUP(E28,students,2)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
+        <f>VLOOKUP(F28,students,2)</f>
+        <v>17</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <f>VLOOKUP(E29,students,2)</f>
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <f>VLOOKUP(F29,students,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>9</v>
-      </c>
-      <c r="C27" s="6">
-        <v>7</v>
-      </c>
-      <c r="D27" s="4">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>